--- a/log/f_input_log.xlsx
+++ b/log/f_input_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Tatoray Stripper C620 Operation_Specifications_Spec 2 : Distillate Rate_m3/hr</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>test001</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FQ2"/>
+  <dimension ref="A1:FQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1935,6 +1938,527 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:173">
+      <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>0.2500000298</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.02286667936</v>
+      </c>
+      <c r="F3">
+        <v>0.5524589419</v>
+      </c>
+      <c r="G3">
+        <v>0.5087039471</v>
+      </c>
+      <c r="H3">
+        <v>0.1523808986</v>
+      </c>
+      <c r="I3">
+        <v>0.07639389485</v>
+      </c>
+      <c r="J3">
+        <v>0.01583717391</v>
+      </c>
+      <c r="K3">
+        <v>15.78070927</v>
+      </c>
+      <c r="L3">
+        <v>0.007679889909999999</v>
+      </c>
+      <c r="M3">
+        <v>0.01514114253</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.01228782348</v>
+      </c>
+      <c r="P3">
+        <v>38.88857651</v>
+      </c>
+      <c r="Q3">
+        <v>0.008191881700999999</v>
+      </c>
+      <c r="R3">
+        <v>0.009642527438999999</v>
+      </c>
+      <c r="S3">
+        <v>0.009642527438999999</v>
+      </c>
+      <c r="T3">
+        <v>0.9393917321999999</v>
+      </c>
+      <c r="U3">
+        <v>7.295359135</v>
+      </c>
+      <c r="V3">
+        <v>15.927495</v>
+      </c>
+      <c r="W3">
+        <v>6.511656284</v>
+      </c>
+      <c r="X3">
+        <v>0.01399446651</v>
+      </c>
+      <c r="Y3">
+        <v>0.005488002672999999</v>
+      </c>
+      <c r="Z3">
+        <v>0.002645295346</v>
+      </c>
+      <c r="AA3">
+        <v>0.006402669474</v>
+      </c>
+      <c r="AB3">
+        <v>0.8972885012999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.4701389074</v>
+      </c>
+      <c r="AD3">
+        <v>2.381793261</v>
+      </c>
+      <c r="AE3">
+        <v>0.2643387914</v>
+      </c>
+      <c r="AF3">
+        <v>6.083450317</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0.9713764190999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.03201334551000001</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0009146670927000001</v>
+      </c>
+      <c r="AK3">
+        <v>0.02103734389</v>
+      </c>
+      <c r="AL3">
+        <v>0.8222856521999999</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0.9457657933</v>
+      </c>
+      <c r="AO3">
+        <v>0.2423867881</v>
+      </c>
+      <c r="AP3">
+        <v>0.1042720526</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0.0001000001794</v>
+      </c>
+      <c r="AX3">
+        <v>0.0001000001794</v>
+      </c>
+      <c r="AY3">
+        <v>0.001100001973</v>
+      </c>
+      <c r="AZ3">
+        <v>35.41366577</v>
+      </c>
+      <c r="BA3">
+        <v>0.0007000012556</v>
+      </c>
+      <c r="BB3">
+        <v>0.001400002511</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0.006000010762</v>
+      </c>
+      <c r="BE3">
+        <v>57.97310638</v>
+      </c>
+      <c r="BF3">
+        <v>0.02530004643</v>
+      </c>
+      <c r="BG3">
+        <v>0.02250004187</v>
+      </c>
+      <c r="BH3">
+        <v>0.0184000358</v>
+      </c>
+      <c r="BI3">
+        <v>3.171905994</v>
+      </c>
+      <c r="BJ3">
+        <v>1.083701968</v>
+      </c>
+      <c r="BK3">
+        <v>1.776203275</v>
+      </c>
+      <c r="BL3">
+        <v>0.3137005866</v>
+      </c>
+      <c r="BM3">
+        <v>0.04040007293</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.08960016072</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0.003500006162</v>
+      </c>
+      <c r="BR3">
+        <v>0.003500006162</v>
+      </c>
+      <c r="BS3">
+        <v>0.007000012323</v>
+      </c>
+      <c r="BT3">
+        <v>0.001700003166</v>
+      </c>
+      <c r="BU3">
+        <v>0.001700003166</v>
+      </c>
+      <c r="BV3">
+        <v>0.007100013085000001</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0.03010005504</v>
+      </c>
+      <c r="BZ3">
+        <v>0.007500014268</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>63.01247656</v>
+      </c>
+      <c r="CI3">
+        <v>33.73537891</v>
+      </c>
+      <c r="CJ3">
+        <v>950.004611832811</v>
+      </c>
+      <c r="CK3">
+        <v>10.00000047</v>
+      </c>
+      <c r="CL3">
+        <v>117.4610859</v>
+      </c>
+      <c r="CM3">
+        <v>50.71919922</v>
+      </c>
+      <c r="CN3">
+        <v>0.1</v>
+      </c>
+      <c r="CO3">
+        <v>0.1</v>
+      </c>
+      <c r="CP3">
+        <v>0.1</v>
+      </c>
+      <c r="CQ3">
+        <v>0.1</v>
+      </c>
+      <c r="CR3">
+        <v>0.1</v>
+      </c>
+      <c r="CS3">
+        <v>0.1</v>
+      </c>
+      <c r="CT3">
+        <v>0.1</v>
+      </c>
+      <c r="CU3">
+        <v>0.008561972691925641</v>
+      </c>
+      <c r="CV3">
+        <v>0.001091047074571704</v>
+      </c>
+      <c r="CW3">
+        <v>0.01416717583490606</v>
+      </c>
+      <c r="CX3">
+        <v>0.1</v>
+      </c>
+      <c r="CY3">
+        <v>0.4566316887945526</v>
+      </c>
+      <c r="CZ3">
+        <v>0.4834914865518003</v>
+      </c>
+      <c r="DA3">
+        <v>0.6113613226504184</v>
+      </c>
+      <c r="DB3">
+        <v>0.4924748433247049</v>
+      </c>
+      <c r="DC3">
+        <v>0.4414104447694909</v>
+      </c>
+      <c r="DD3">
+        <v>0.5813979174251312</v>
+      </c>
+      <c r="DE3">
+        <v>0.05814294879517575</v>
+      </c>
+      <c r="DF3">
+        <v>0.04433192903130505</v>
+      </c>
+      <c r="DG3">
+        <v>0.01953401100154046</v>
+      </c>
+      <c r="DH3">
+        <v>0.5426029200936733</v>
+      </c>
+      <c r="DI3">
+        <v>2.010314082297007e-05</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9329135443356412</v>
+      </c>
+      <c r="DK3">
+        <v>3.244803391413757e-06</v>
+      </c>
+      <c r="DL3">
+        <v>0.001605086556078708</v>
+      </c>
+      <c r="DM3">
+        <v>0.003051535732317259</v>
+      </c>
+      <c r="DN3">
+        <v>0.001205945492529582</v>
+      </c>
+      <c r="DO3">
+        <v>0.002636878619257355</v>
+      </c>
+      <c r="DP3">
+        <v>0.0001149155325647318</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>2.987756576149149e-08</v>
+      </c>
+      <c r="DS3">
+        <v>3.69706578072897e-08</v>
+      </c>
+      <c r="DT3">
+        <v>0.9310842607758552</v>
+      </c>
+      <c r="DU3">
+        <v>0.127677545757401</v>
+      </c>
+      <c r="DV3">
+        <v>5.277990049588564e-09</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>5.829141370930803e-11</v>
+      </c>
+      <c r="DY3">
+        <v>1.054064924299816e-11</v>
+      </c>
+      <c r="DZ3">
+        <v>2.671410017650188e-14</v>
+      </c>
+      <c r="EA3">
+        <v>1</v>
+      </c>
+      <c r="EB3">
+        <v>1</v>
+      </c>
+      <c r="EC3">
+        <v>0.9</v>
+      </c>
+      <c r="ED3">
+        <v>0.9</v>
+      </c>
+      <c r="EE3">
+        <v>0.9</v>
+      </c>
+      <c r="EF3">
+        <v>0.9</v>
+      </c>
+      <c r="EG3">
+        <v>0.9</v>
+      </c>
+      <c r="EH3">
+        <v>0.9</v>
+      </c>
+      <c r="EI3">
+        <v>0.9</v>
+      </c>
+      <c r="EJ3">
+        <v>0.9914380273080744</v>
+      </c>
+      <c r="EK3">
+        <v>0.9989089529254284</v>
+      </c>
+      <c r="EL3">
+        <v>0.9858328241650941</v>
+      </c>
+      <c r="EM3">
+        <v>0.9</v>
+      </c>
+      <c r="EN3">
+        <v>0.5433683112054475</v>
+      </c>
+      <c r="EO3">
+        <v>0.5165085134481997</v>
+      </c>
+      <c r="EP3">
+        <v>0.3886386773495816</v>
+      </c>
+      <c r="EQ3">
+        <v>0.5075251566752952</v>
+      </c>
+      <c r="ER3">
+        <v>0.5585895552305091</v>
+      </c>
+      <c r="ES3">
+        <v>0.4186020825748688</v>
+      </c>
+      <c r="ET3">
+        <v>0.9418570512048242</v>
+      </c>
+      <c r="EU3">
+        <v>0.955668070968695</v>
+      </c>
+      <c r="EV3">
+        <v>0.9804659889984596</v>
+      </c>
+      <c r="EW3">
+        <v>0.4573970799063267</v>
+      </c>
+      <c r="EX3">
+        <v>0.9999798968591771</v>
+      </c>
+      <c r="EY3">
+        <v>0.06708645566435878</v>
+      </c>
+      <c r="EZ3">
+        <v>0.9999967551966086</v>
+      </c>
+      <c r="FA3">
+        <v>0.9983949134439212</v>
+      </c>
+      <c r="FB3">
+        <v>0.9969484642676828</v>
+      </c>
+      <c r="FC3">
+        <v>0.9987940545074704</v>
+      </c>
+      <c r="FD3">
+        <v>0.9973631213807428</v>
+      </c>
+      <c r="FE3">
+        <v>0.9998850844674352</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0.9999999701224342</v>
+      </c>
+      <c r="FH3">
+        <v>0.9999999630293422</v>
+      </c>
+      <c r="FI3">
+        <v>0.06891573922414472</v>
+      </c>
+      <c r="FJ3">
+        <v>0.8723224542425991</v>
+      </c>
+      <c r="FK3">
+        <v>0.9999999947220101</v>
+      </c>
+      <c r="FL3">
+        <v>1</v>
+      </c>
+      <c r="FM3">
+        <v>0.9999999999417086</v>
+      </c>
+      <c r="FN3">
+        <v>0.9999999999894592</v>
+      </c>
+      <c r="FO3">
+        <v>0.9999999999999732</v>
+      </c>
+      <c r="FP3">
+        <v>0</v>
+      </c>
+      <c r="FQ3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
